--- a/sd-add-operationalStatus/ig/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/sd-add-operationalStatus/ig/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T12:31:57+00:00</t>
+    <t>2024-05-03T14:23:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sd-add-operationalStatus/ig/StructureDefinition-ror-organization-accomodation-family.xlsx
+++ b/sd-add-operationalStatus/ig/StructureDefinition-ror-organization-accomodation-family.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T14:23:04+00:00</t>
+    <t>2024-05-03T15:31:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
